--- a/Iconos/Versiones/Mantenimiento Iconos.xlsx
+++ b/Iconos/Versiones/Mantenimiento Iconos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/welizondo/Documents/Respaldo de informacion de Yllan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/welizondo/Documents/Iconos/Versiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C0C389-BAEE-C64C-BB8C-26A7D97AC909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723BBF2C-B03B-3B45-A40D-21D343358A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-4500" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{1392F145-BFF9-584F-9FD8-96983AD39B37}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="13" xr2:uid="{1392F145-BFF9-584F-9FD8-96983AD39B37}"/>
   </bookViews>
   <sheets>
     <sheet name="Match inicial" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2.1" sheetId="11" r:id="rId11"/>
     <sheet name="2.2" sheetId="12" r:id="rId12"/>
     <sheet name="2.3" sheetId="13" r:id="rId13"/>
+    <sheet name="2.4" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7971" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8819" uniqueCount="675">
   <si>
     <t>Clase App</t>
   </si>
@@ -2062,6 +2063,15 @@
   </si>
   <si>
     <t>help-center: e217</t>
+  </si>
+  <si>
+    <t>help-chat</t>
+  </si>
+  <si>
+    <t>e218</t>
+  </si>
+  <si>
+    <t>help-chat: e218</t>
   </si>
 </sst>
 </file>
@@ -2641,7 +2651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -3043,6 +3053,35 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3064,32 +3103,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12291,7 +12305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D22C19-8591-BA4D-86A2-E33351187D45}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A164" workbookViewId="0">
       <selection activeCell="A194" sqref="A194:D196"/>
     </sheetView>
   </sheetViews>
@@ -15138,16 +15152,16 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A184" s="150" t="s">
+      <c r="A184" s="139" t="s">
         <v>636</v>
       </c>
-      <c r="B184" s="150" t="s">
+      <c r="B184" s="139" t="s">
         <v>637</v>
       </c>
-      <c r="C184" s="150" t="s">
+      <c r="C184" s="139" t="s">
         <v>636</v>
       </c>
-      <c r="D184" s="150" t="s">
+      <c r="D184" s="139" t="s">
         <v>637</v>
       </c>
       <c r="E184" s="18" t="s">
@@ -15155,16 +15169,16 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A185" s="150" t="s">
+      <c r="A185" s="139" t="s">
         <v>639</v>
       </c>
-      <c r="B185" s="150" t="s">
+      <c r="B185" s="139" t="s">
         <v>640</v>
       </c>
-      <c r="C185" s="150" t="s">
+      <c r="C185" s="139" t="s">
         <v>639</v>
       </c>
-      <c r="D185" s="150" t="s">
+      <c r="D185" s="139" t="s">
         <v>640</v>
       </c>
       <c r="E185" s="23" t="s">
@@ -15172,16 +15186,16 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A186" s="150" t="s">
+      <c r="A186" s="139" t="s">
         <v>641</v>
       </c>
-      <c r="B186" s="150" t="s">
+      <c r="B186" s="139" t="s">
         <v>642</v>
       </c>
-      <c r="C186" s="150" t="s">
+      <c r="C186" s="139" t="s">
         <v>641</v>
       </c>
-      <c r="D186" s="150" t="s">
+      <c r="D186" s="139" t="s">
         <v>642</v>
       </c>
       <c r="E186" s="24" t="s">
@@ -15189,16 +15203,16 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A187" s="150" t="s">
+      <c r="A187" s="139" t="s">
         <v>643</v>
       </c>
-      <c r="B187" s="150" t="s">
+      <c r="B187" s="139" t="s">
         <v>644</v>
       </c>
-      <c r="C187" s="150" t="s">
+      <c r="C187" s="139" t="s">
         <v>643</v>
       </c>
-      <c r="D187" s="150" t="s">
+      <c r="D187" s="139" t="s">
         <v>644</v>
       </c>
       <c r="E187" s="25" t="s">
@@ -15206,16 +15220,16 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A188" s="150" t="s">
+      <c r="A188" s="139" t="s">
         <v>645</v>
       </c>
-      <c r="B188" s="150" t="s">
+      <c r="B188" s="139" t="s">
         <v>646</v>
       </c>
-      <c r="C188" s="150" t="s">
+      <c r="C188" s="139" t="s">
         <v>645</v>
       </c>
-      <c r="D188" s="150" t="s">
+      <c r="D188" s="139" t="s">
         <v>646</v>
       </c>
       <c r="E188" s="26" t="s">
@@ -15223,16 +15237,16 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A189" s="150" t="s">
+      <c r="A189" s="139" t="s">
         <v>647</v>
       </c>
-      <c r="B189" s="150" t="s">
+      <c r="B189" s="139" t="s">
         <v>648</v>
       </c>
-      <c r="C189" s="150" t="s">
+      <c r="C189" s="139" t="s">
         <v>647</v>
       </c>
-      <c r="D189" s="150" t="s">
+      <c r="D189" s="139" t="s">
         <v>648</v>
       </c>
       <c r="E189" s="28" t="s">
@@ -15240,104 +15254,104 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A190" s="150" t="s">
+      <c r="A190" s="139" t="s">
         <v>649</v>
       </c>
-      <c r="B190" s="150" t="s">
+      <c r="B190" s="139" t="s">
         <v>650</v>
       </c>
-      <c r="C190" s="150" t="s">
+      <c r="C190" s="139" t="s">
         <v>649</v>
       </c>
-      <c r="D190" s="150" t="s">
+      <c r="D190" s="139" t="s">
         <v>650</v>
       </c>
       <c r="E190" s="74"/>
     </row>
     <row r="191" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A191" s="150" t="s">
+      <c r="A191" s="139" t="s">
         <v>651</v>
       </c>
-      <c r="B191" s="150" t="s">
+      <c r="B191" s="139" t="s">
         <v>652</v>
       </c>
-      <c r="C191" s="150" t="s">
+      <c r="C191" s="139" t="s">
         <v>651</v>
       </c>
-      <c r="D191" s="150" t="s">
+      <c r="D191" s="139" t="s">
         <v>652</v>
       </c>
       <c r="E191" s="74"/>
     </row>
     <row r="192" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A192" s="150" t="s">
+      <c r="A192" s="139" t="s">
         <v>653</v>
       </c>
-      <c r="B192" s="150" t="s">
+      <c r="B192" s="139" t="s">
         <v>654</v>
       </c>
-      <c r="C192" s="150" t="s">
+      <c r="C192" s="139" t="s">
         <v>653</v>
       </c>
-      <c r="D192" s="150" t="s">
+      <c r="D192" s="139" t="s">
         <v>654</v>
       </c>
       <c r="E192" s="74"/>
     </row>
     <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A193" s="150" t="s">
+      <c r="A193" s="139" t="s">
         <v>655</v>
       </c>
-      <c r="B193" s="150" t="s">
+      <c r="B193" s="139" t="s">
         <v>656</v>
       </c>
-      <c r="C193" s="150" t="s">
+      <c r="C193" s="139" t="s">
         <v>655</v>
       </c>
-      <c r="D193" s="150" t="s">
+      <c r="D193" s="139" t="s">
         <v>656</v>
       </c>
       <c r="E193" s="74"/>
     </row>
     <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A194" s="151" t="s">
+      <c r="A194" s="140" t="s">
         <v>657</v>
       </c>
-      <c r="B194" s="151" t="s">
+      <c r="B194" s="140" t="s">
         <v>658</v>
       </c>
-      <c r="C194" s="151" t="s">
+      <c r="C194" s="140" t="s">
         <v>657</v>
       </c>
-      <c r="D194" s="151" t="s">
+      <c r="D194" s="140" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A195" s="151" t="s">
+      <c r="A195" s="140" t="s">
         <v>659</v>
       </c>
-      <c r="B195" s="151" t="s">
+      <c r="B195" s="140" t="s">
         <v>660</v>
       </c>
-      <c r="C195" s="151" t="s">
+      <c r="C195" s="140" t="s">
         <v>659</v>
       </c>
-      <c r="D195" s="151" t="s">
+      <c r="D195" s="140" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A196" s="151" t="s">
+      <c r="A196" s="140" t="s">
         <v>661</v>
       </c>
-      <c r="B196" s="151" t="s">
+      <c r="B196" s="140" t="s">
         <v>662</v>
       </c>
-      <c r="C196" s="151" t="s">
+      <c r="C196" s="140" t="s">
         <v>661</v>
       </c>
-      <c r="D196" s="151" t="s">
+      <c r="D196" s="140" t="s">
         <v>662</v>
       </c>
     </row>
@@ -15350,8 +15364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582B6422-2FBB-5341-96EE-3928FE3CF941}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="D124" sqref="A124:D124"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C124" sqref="A1:E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17271,16 +17285,16 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="152" t="s">
+      <c r="A124" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="B124" s="153" t="s">
+      <c r="B124" s="142" t="s">
         <v>542</v>
       </c>
-      <c r="C124" s="153" t="s">
+      <c r="C124" s="142" t="s">
         <v>543</v>
       </c>
-      <c r="D124" s="154" t="s">
+      <c r="D124" s="143" t="s">
         <v>542</v>
       </c>
       <c r="E124" s="23" t="s">
@@ -18197,16 +18211,16 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A184" s="150" t="s">
+      <c r="A184" s="139" t="s">
         <v>636</v>
       </c>
-      <c r="B184" s="150" t="s">
+      <c r="B184" s="139" t="s">
         <v>637</v>
       </c>
-      <c r="C184" s="150" t="s">
+      <c r="C184" s="139" t="s">
         <v>636</v>
       </c>
-      <c r="D184" s="150" t="s">
+      <c r="D184" s="139" t="s">
         <v>637</v>
       </c>
       <c r="E184" s="18" t="s">
@@ -18214,16 +18228,16 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A185" s="150" t="s">
+      <c r="A185" s="139" t="s">
         <v>639</v>
       </c>
-      <c r="B185" s="150" t="s">
+      <c r="B185" s="139" t="s">
         <v>640</v>
       </c>
-      <c r="C185" s="150" t="s">
+      <c r="C185" s="139" t="s">
         <v>639</v>
       </c>
-      <c r="D185" s="150" t="s">
+      <c r="D185" s="139" t="s">
         <v>640</v>
       </c>
       <c r="E185" s="23" t="s">
@@ -18231,16 +18245,16 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A186" s="150" t="s">
+      <c r="A186" s="139" t="s">
         <v>641</v>
       </c>
-      <c r="B186" s="150" t="s">
+      <c r="B186" s="139" t="s">
         <v>642</v>
       </c>
-      <c r="C186" s="150" t="s">
+      <c r="C186" s="139" t="s">
         <v>641</v>
       </c>
-      <c r="D186" s="150" t="s">
+      <c r="D186" s="139" t="s">
         <v>642</v>
       </c>
       <c r="E186" s="24" t="s">
@@ -18248,16 +18262,16 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A187" s="150" t="s">
+      <c r="A187" s="139" t="s">
         <v>643</v>
       </c>
-      <c r="B187" s="150" t="s">
+      <c r="B187" s="139" t="s">
         <v>644</v>
       </c>
-      <c r="C187" s="150" t="s">
+      <c r="C187" s="139" t="s">
         <v>643</v>
       </c>
-      <c r="D187" s="150" t="s">
+      <c r="D187" s="139" t="s">
         <v>644</v>
       </c>
       <c r="E187" s="25" t="s">
@@ -18265,16 +18279,16 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A188" s="150" t="s">
+      <c r="A188" s="139" t="s">
         <v>645</v>
       </c>
-      <c r="B188" s="150" t="s">
+      <c r="B188" s="139" t="s">
         <v>646</v>
       </c>
-      <c r="C188" s="150" t="s">
+      <c r="C188" s="139" t="s">
         <v>645</v>
       </c>
-      <c r="D188" s="150" t="s">
+      <c r="D188" s="139" t="s">
         <v>646</v>
       </c>
       <c r="E188" s="26" t="s">
@@ -18282,16 +18296,16 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A189" s="150" t="s">
+      <c r="A189" s="139" t="s">
         <v>647</v>
       </c>
-      <c r="B189" s="150" t="s">
+      <c r="B189" s="139" t="s">
         <v>648</v>
       </c>
-      <c r="C189" s="150" t="s">
+      <c r="C189" s="139" t="s">
         <v>647</v>
       </c>
-      <c r="D189" s="150" t="s">
+      <c r="D189" s="139" t="s">
         <v>648</v>
       </c>
       <c r="E189" s="28" t="s">
@@ -18299,133 +18313,3234 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A190" s="150" t="s">
+      <c r="A190" s="139" t="s">
         <v>649</v>
       </c>
-      <c r="B190" s="150" t="s">
+      <c r="B190" s="139" t="s">
         <v>650</v>
       </c>
-      <c r="C190" s="150" t="s">
+      <c r="C190" s="139" t="s">
         <v>649</v>
       </c>
-      <c r="D190" s="150" t="s">
+      <c r="D190" s="139" t="s">
         <v>650</v>
       </c>
       <c r="E190" s="74"/>
     </row>
     <row r="191" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A191" s="150" t="s">
+      <c r="A191" s="139" t="s">
         <v>651</v>
       </c>
-      <c r="B191" s="150" t="s">
+      <c r="B191" s="139" t="s">
         <v>652</v>
       </c>
-      <c r="C191" s="150" t="s">
+      <c r="C191" s="139" t="s">
         <v>651</v>
       </c>
-      <c r="D191" s="150" t="s">
+      <c r="D191" s="139" t="s">
         <v>652</v>
       </c>
       <c r="E191" s="74"/>
     </row>
     <row r="192" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A192" s="150" t="s">
+      <c r="A192" s="139" t="s">
         <v>653</v>
       </c>
-      <c r="B192" s="150" t="s">
+      <c r="B192" s="139" t="s">
         <v>654</v>
       </c>
-      <c r="C192" s="150" t="s">
+      <c r="C192" s="139" t="s">
         <v>653</v>
       </c>
-      <c r="D192" s="150" t="s">
+      <c r="D192" s="139" t="s">
         <v>654</v>
       </c>
       <c r="E192" s="74"/>
     </row>
     <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A193" s="150" t="s">
+      <c r="A193" s="139" t="s">
         <v>655</v>
       </c>
-      <c r="B193" s="150" t="s">
+      <c r="B193" s="139" t="s">
         <v>656</v>
       </c>
-      <c r="C193" s="150" t="s">
+      <c r="C193" s="139" t="s">
         <v>655</v>
       </c>
-      <c r="D193" s="150" t="s">
+      <c r="D193" s="139" t="s">
         <v>656</v>
       </c>
       <c r="E193" s="74"/>
     </row>
     <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A194" s="150" t="s">
+      <c r="A194" s="139" t="s">
         <v>657</v>
       </c>
-      <c r="B194" s="150" t="s">
+      <c r="B194" s="139" t="s">
         <v>658</v>
       </c>
-      <c r="C194" s="150" t="s">
+      <c r="C194" s="139" t="s">
         <v>657</v>
       </c>
-      <c r="D194" s="150" t="s">
+      <c r="D194" s="139" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A195" s="150" t="s">
+      <c r="A195" s="139" t="s">
         <v>659</v>
       </c>
-      <c r="B195" s="150" t="s">
+      <c r="B195" s="139" t="s">
         <v>660</v>
       </c>
-      <c r="C195" s="150" t="s">
+      <c r="C195" s="139" t="s">
         <v>659</v>
       </c>
-      <c r="D195" s="150" t="s">
+      <c r="D195" s="139" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A196" s="150" t="s">
+      <c r="A196" s="139" t="s">
         <v>661</v>
       </c>
-      <c r="B196" s="150" t="s">
+      <c r="B196" s="139" t="s">
         <v>662</v>
       </c>
-      <c r="C196" s="150" t="s">
+      <c r="C196" s="139" t="s">
         <v>661</v>
       </c>
-      <c r="D196" s="150" t="s">
+      <c r="D196" s="139" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A197" s="151" t="s">
+      <c r="A197" s="140" t="s">
         <v>665</v>
       </c>
-      <c r="B197" s="151" t="s">
+      <c r="B197" s="140" t="s">
         <v>664</v>
       </c>
-      <c r="C197" s="151" t="s">
+      <c r="C197" s="140" t="s">
         <v>665</v>
       </c>
-      <c r="D197" s="151" t="s">
+      <c r="D197" s="140" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A198" s="151" t="s">
+      <c r="A198" s="140" t="s">
         <v>666</v>
       </c>
-      <c r="B198" s="151" t="s">
+      <c r="B198" s="140" t="s">
         <v>663</v>
       </c>
-      <c r="C198" s="151" t="s">
+      <c r="C198" s="140" t="s">
         <v>666</v>
       </c>
-      <c r="D198" s="151" t="s">
+      <c r="D198" s="140" t="s">
         <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643FE6C9-0470-7E41-82CD-CC3EFDEA9FB6}">
+  <dimension ref="A1:E199"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="K202" sqref="K202"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="103" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>413</v>
+      </c>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>414</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>415</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>416</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="104" t="s">
+        <v>417</v>
+      </c>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="104" t="s">
+        <v>420</v>
+      </c>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="103" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="104" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>426</v>
+      </c>
+      <c r="D22" s="104" t="s">
+        <v>425</v>
+      </c>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="103" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>431</v>
+      </c>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="103" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>435</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="103" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="103" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="D29" s="104" t="s">
+        <v>377</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>439</v>
+      </c>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="104" t="s">
+        <v>440</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="104" t="s">
+        <v>441</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="103" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="104" t="s">
+        <v>442</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>443</v>
+      </c>
+      <c r="C34" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="103" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>445</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>446</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="103" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="104" t="s">
+        <v>447</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="103" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="104" t="s">
+        <v>448</v>
+      </c>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>449</v>
+      </c>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="103" t="s">
+        <v>450</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="104" t="s">
+        <v>450</v>
+      </c>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="104" t="s">
+        <v>451</v>
+      </c>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="103" t="s">
+        <v>452</v>
+      </c>
+      <c r="C43" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="104" t="s">
+        <v>452</v>
+      </c>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="104" t="s">
+        <v>453</v>
+      </c>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="103" t="s">
+        <v>454</v>
+      </c>
+      <c r="C45" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="104" t="s">
+        <v>454</v>
+      </c>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="103" t="s">
+        <v>455</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="104" t="s">
+        <v>455</v>
+      </c>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="103" t="s">
+        <v>456</v>
+      </c>
+      <c r="C47" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="104" t="s">
+        <v>456</v>
+      </c>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="103" t="s">
+        <v>457</v>
+      </c>
+      <c r="C48" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="104" t="s">
+        <v>457</v>
+      </c>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="103" t="s">
+        <v>458</v>
+      </c>
+      <c r="C49" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="104" t="s">
+        <v>458</v>
+      </c>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="103" t="s">
+        <v>459</v>
+      </c>
+      <c r="C50" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="104" t="s">
+        <v>459</v>
+      </c>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="103" t="s">
+        <v>460</v>
+      </c>
+      <c r="C51" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="104" t="s">
+        <v>460</v>
+      </c>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="103" t="s">
+        <v>461</v>
+      </c>
+      <c r="C52" s="103" t="s">
+        <v>462</v>
+      </c>
+      <c r="D52" s="104" t="s">
+        <v>461</v>
+      </c>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="103" t="s">
+        <v>463</v>
+      </c>
+      <c r="C53" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="104" t="s">
+        <v>463</v>
+      </c>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="103" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="104" t="s">
+        <v>464</v>
+      </c>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="103" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="104" t="s">
+        <v>465</v>
+      </c>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="103" t="s">
+        <v>466</v>
+      </c>
+      <c r="C56" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="103" t="s">
+        <v>467</v>
+      </c>
+      <c r="C57" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="104" t="s">
+        <v>467</v>
+      </c>
+      <c r="E57" s="30"/>
+    </row>
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="103" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" s="103" t="s">
+        <v>469</v>
+      </c>
+      <c r="D58" s="104" t="s">
+        <v>468</v>
+      </c>
+      <c r="E58" s="30"/>
+    </row>
+    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="103" t="s">
+        <v>470</v>
+      </c>
+      <c r="C59" s="103" t="s">
+        <v>471</v>
+      </c>
+      <c r="D59" s="104" t="s">
+        <v>470</v>
+      </c>
+      <c r="E59" s="30"/>
+    </row>
+    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="103" t="s">
+        <v>472</v>
+      </c>
+      <c r="C60" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="E60" s="30"/>
+    </row>
+    <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="103" t="s">
+        <v>473</v>
+      </c>
+      <c r="C61" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="104" t="s">
+        <v>473</v>
+      </c>
+      <c r="E61" s="30"/>
+    </row>
+    <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="103" t="s">
+        <v>474</v>
+      </c>
+      <c r="C62" s="103" t="s">
+        <v>475</v>
+      </c>
+      <c r="D62" s="104" t="s">
+        <v>474</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="103" t="s">
+        <v>476</v>
+      </c>
+      <c r="C63" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="104" t="s">
+        <v>476</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="103" t="s">
+        <v>477</v>
+      </c>
+      <c r="C64" s="103" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" s="104" t="s">
+        <v>477</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="103" t="s">
+        <v>478</v>
+      </c>
+      <c r="C65" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="104" t="s">
+        <v>478</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="103" t="s">
+        <v>479</v>
+      </c>
+      <c r="C66" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="104" t="s">
+        <v>479</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="102" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" s="103" t="s">
+        <v>480</v>
+      </c>
+      <c r="C67" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="104" t="s">
+        <v>480</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="103" t="s">
+        <v>481</v>
+      </c>
+      <c r="C68" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="104" t="s">
+        <v>481</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="103" t="s">
+        <v>482</v>
+      </c>
+      <c r="C69" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="104" t="s">
+        <v>482</v>
+      </c>
+      <c r="E69" s="30"/>
+    </row>
+    <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="103" t="s">
+        <v>483</v>
+      </c>
+      <c r="C70" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="104" t="s">
+        <v>483</v>
+      </c>
+      <c r="E70" s="30"/>
+    </row>
+    <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>484</v>
+      </c>
+      <c r="C71" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="104" t="s">
+        <v>484</v>
+      </c>
+      <c r="E71" s="30"/>
+    </row>
+    <row r="72" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="103" t="s">
+        <v>485</v>
+      </c>
+      <c r="C72" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="104" t="s">
+        <v>485</v>
+      </c>
+      <c r="E72" s="30"/>
+    </row>
+    <row r="73" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="103" t="s">
+        <v>486</v>
+      </c>
+      <c r="C73" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="104" t="s">
+        <v>486</v>
+      </c>
+      <c r="E73" s="30"/>
+    </row>
+    <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="103" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="104" t="s">
+        <v>487</v>
+      </c>
+      <c r="E74" s="30"/>
+    </row>
+    <row r="75" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="103" t="s">
+        <v>488</v>
+      </c>
+      <c r="C75" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="104" t="s">
+        <v>488</v>
+      </c>
+      <c r="E75" s="30"/>
+    </row>
+    <row r="76" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="103" t="s">
+        <v>489</v>
+      </c>
+      <c r="C76" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="103" t="s">
+        <v>490</v>
+      </c>
+      <c r="C77" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="104" t="s">
+        <v>490</v>
+      </c>
+      <c r="E77" s="30"/>
+    </row>
+    <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="C78" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="104" t="s">
+        <v>491</v>
+      </c>
+      <c r="E78" s="30"/>
+    </row>
+    <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="103" t="s">
+        <v>492</v>
+      </c>
+      <c r="C79" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="104" t="s">
+        <v>492</v>
+      </c>
+      <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C80" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="E80" s="30"/>
+    </row>
+    <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="103" t="s">
+        <v>378</v>
+      </c>
+      <c r="C81" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="104" t="s">
+        <v>378</v>
+      </c>
+      <c r="E81" s="30"/>
+    </row>
+    <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="C82" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="104" t="s">
+        <v>494</v>
+      </c>
+      <c r="E82" s="30"/>
+    </row>
+    <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" s="103" t="s">
+        <v>495</v>
+      </c>
+      <c r="C83" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="104" t="s">
+        <v>495</v>
+      </c>
+      <c r="E83" s="30"/>
+    </row>
+    <row r="84" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="103" t="s">
+        <v>496</v>
+      </c>
+      <c r="C84" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="104" t="s">
+        <v>496</v>
+      </c>
+      <c r="E84" s="30"/>
+    </row>
+    <row r="85" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="103" t="s">
+        <v>497</v>
+      </c>
+      <c r="C85" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="E85" s="30"/>
+    </row>
+    <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" s="103" t="s">
+        <v>498</v>
+      </c>
+      <c r="C86" s="103" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="E86" s="30"/>
+    </row>
+    <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="103" t="s">
+        <v>500</v>
+      </c>
+      <c r="C87" s="103" t="s">
+        <v>501</v>
+      </c>
+      <c r="D87" s="104" t="s">
+        <v>500</v>
+      </c>
+      <c r="E87" s="30"/>
+    </row>
+    <row r="88" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="103" t="s">
+        <v>502</v>
+      </c>
+      <c r="C88" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="E88" s="30"/>
+    </row>
+    <row r="89" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="103" t="s">
+        <v>503</v>
+      </c>
+      <c r="C89" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="104" t="s">
+        <v>503</v>
+      </c>
+      <c r="E89" s="30"/>
+    </row>
+    <row r="90" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="103" t="s">
+        <v>504</v>
+      </c>
+      <c r="C90" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="104" t="s">
+        <v>504</v>
+      </c>
+      <c r="E90" s="30"/>
+    </row>
+    <row r="91" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" s="103" t="s">
+        <v>505</v>
+      </c>
+      <c r="C91" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="104" t="s">
+        <v>505</v>
+      </c>
+      <c r="E91" s="30"/>
+    </row>
+    <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="103" t="s">
+        <v>506</v>
+      </c>
+      <c r="C92" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="104" t="s">
+        <v>506</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="103" t="s">
+        <v>507</v>
+      </c>
+      <c r="C93" s="103" t="s">
+        <v>508</v>
+      </c>
+      <c r="D93" s="104" t="s">
+        <v>507</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" s="103" t="s">
+        <v>509</v>
+      </c>
+      <c r="C94" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="104" t="s">
+        <v>509</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95" s="103" t="s">
+        <v>510</v>
+      </c>
+      <c r="C95" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" s="104" t="s">
+        <v>510</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96" s="103" t="s">
+        <v>511</v>
+      </c>
+      <c r="C96" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="104" t="s">
+        <v>511</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="C97" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="104" t="s">
+        <v>512</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" s="103" t="s">
+        <v>513</v>
+      </c>
+      <c r="C98" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="104" t="s">
+        <v>513</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="103" t="s">
+        <v>514</v>
+      </c>
+      <c r="C99" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="104" t="s">
+        <v>514</v>
+      </c>
+      <c r="E99" s="30"/>
+    </row>
+    <row r="100" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" s="103" t="s">
+        <v>515</v>
+      </c>
+      <c r="C100" s="103" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" s="104" t="s">
+        <v>515</v>
+      </c>
+      <c r="E100" s="30"/>
+    </row>
+    <row r="101" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="103" t="s">
+        <v>516</v>
+      </c>
+      <c r="C101" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" s="104" t="s">
+        <v>516</v>
+      </c>
+      <c r="E101" s="30"/>
+    </row>
+    <row r="102" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="B102" s="103" t="s">
+        <v>517</v>
+      </c>
+      <c r="C102" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" s="104" t="s">
+        <v>517</v>
+      </c>
+      <c r="E102" s="30"/>
+    </row>
+    <row r="103" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="103" t="s">
+        <v>518</v>
+      </c>
+      <c r="C103" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" s="104" t="s">
+        <v>518</v>
+      </c>
+      <c r="E103" s="30"/>
+    </row>
+    <row r="104" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="B104" s="103" t="s">
+        <v>519</v>
+      </c>
+      <c r="C104" s="103" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="104" t="s">
+        <v>519</v>
+      </c>
+      <c r="E104" s="30"/>
+    </row>
+    <row r="105" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="B105" s="103" t="s">
+        <v>520</v>
+      </c>
+      <c r="C105" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="E105" s="30"/>
+    </row>
+    <row r="106" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106" s="103" t="s">
+        <v>521</v>
+      </c>
+      <c r="C106" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="E106" s="30"/>
+    </row>
+    <row r="107" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="103" t="s">
+        <v>522</v>
+      </c>
+      <c r="C107" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" s="104" t="s">
+        <v>522</v>
+      </c>
+      <c r="E107" s="30"/>
+    </row>
+    <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="B108" s="103" t="s">
+        <v>523</v>
+      </c>
+      <c r="C108" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="D108" s="104" t="s">
+        <v>523</v>
+      </c>
+      <c r="E108" s="30"/>
+    </row>
+    <row r="109" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="103" t="s">
+        <v>524</v>
+      </c>
+      <c r="C109" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109" s="104" t="s">
+        <v>524</v>
+      </c>
+      <c r="E109" s="30"/>
+    </row>
+    <row r="110" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" s="103" t="s">
+        <v>525</v>
+      </c>
+      <c r="C110" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="104" t="s">
+        <v>525</v>
+      </c>
+      <c r="E110" s="30"/>
+    </row>
+    <row r="111" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="137" t="s">
+        <v>526</v>
+      </c>
+      <c r="C111" s="137" t="s">
+        <v>638</v>
+      </c>
+      <c r="D111" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="E111" s="30"/>
+    </row>
+    <row r="112" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="C112" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" s="104" t="s">
+        <v>527</v>
+      </c>
+      <c r="E112" s="30"/>
+    </row>
+    <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="103" t="s">
+        <v>528</v>
+      </c>
+      <c r="C113" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" s="104" t="s">
+        <v>528</v>
+      </c>
+      <c r="E113" s="30"/>
+    </row>
+    <row r="114" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="103" t="s">
+        <v>529</v>
+      </c>
+      <c r="C114" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114" s="104" t="s">
+        <v>529</v>
+      </c>
+      <c r="E114" s="30"/>
+    </row>
+    <row r="115" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="103" t="s">
+        <v>530</v>
+      </c>
+      <c r="C115" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="104" t="s">
+        <v>530</v>
+      </c>
+      <c r="E115" s="30"/>
+    </row>
+    <row r="116" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="103" t="s">
+        <v>531</v>
+      </c>
+      <c r="C116" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D116" s="104" t="s">
+        <v>531</v>
+      </c>
+      <c r="E116" s="30"/>
+    </row>
+    <row r="117" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="103" t="s">
+        <v>532</v>
+      </c>
+      <c r="C117" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="D117" s="104" t="s">
+        <v>532</v>
+      </c>
+      <c r="E117" s="30"/>
+    </row>
+    <row r="118" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="103" t="s">
+        <v>533</v>
+      </c>
+      <c r="C118" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" s="104" t="s">
+        <v>533</v>
+      </c>
+      <c r="E118" s="30"/>
+    </row>
+    <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" s="103" t="s">
+        <v>534</v>
+      </c>
+      <c r="C119" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="D119" s="104" t="s">
+        <v>534</v>
+      </c>
+      <c r="E119" s="30"/>
+    </row>
+    <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" s="103" t="s">
+        <v>535</v>
+      </c>
+      <c r="C120" s="103" t="s">
+        <v>536</v>
+      </c>
+      <c r="D120" s="104" t="s">
+        <v>535</v>
+      </c>
+      <c r="E120" s="30"/>
+    </row>
+    <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="103" t="s">
+        <v>537</v>
+      </c>
+      <c r="C121" s="103" t="s">
+        <v>538</v>
+      </c>
+      <c r="D121" s="104" t="s">
+        <v>537</v>
+      </c>
+      <c r="E121" s="30"/>
+    </row>
+    <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122" s="103" t="s">
+        <v>539</v>
+      </c>
+      <c r="C122" s="103" t="s">
+        <v>540</v>
+      </c>
+      <c r="D122" s="104" t="s">
+        <v>539</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" s="103" t="s">
+        <v>541</v>
+      </c>
+      <c r="C123" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" s="104" t="s">
+        <v>541</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="142" t="s">
+        <v>542</v>
+      </c>
+      <c r="C124" s="142" t="s">
+        <v>543</v>
+      </c>
+      <c r="D124" s="143" t="s">
+        <v>542</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B125" s="103" t="s">
+        <v>544</v>
+      </c>
+      <c r="C125" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D125" s="104" t="s">
+        <v>544</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126" s="103" t="s">
+        <v>545</v>
+      </c>
+      <c r="C126" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" s="104" t="s">
+        <v>545</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="103" t="s">
+        <v>546</v>
+      </c>
+      <c r="C127" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" s="104" t="s">
+        <v>546</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128" s="103" t="s">
+        <v>547</v>
+      </c>
+      <c r="C128" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="104" t="s">
+        <v>547</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129" s="103" t="s">
+        <v>548</v>
+      </c>
+      <c r="C129" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="104" t="s">
+        <v>548</v>
+      </c>
+      <c r="E129" s="30"/>
+    </row>
+    <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="C130" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="104" t="s">
+        <v>549</v>
+      </c>
+      <c r="E130" s="30"/>
+    </row>
+    <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="103" t="s">
+        <v>550</v>
+      </c>
+      <c r="C131" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="104" t="s">
+        <v>550</v>
+      </c>
+      <c r="E131" s="30"/>
+    </row>
+    <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="103" t="s">
+        <v>551</v>
+      </c>
+      <c r="C132" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="104" t="s">
+        <v>551</v>
+      </c>
+      <c r="E132" s="30"/>
+    </row>
+    <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" s="103" t="s">
+        <v>552</v>
+      </c>
+      <c r="C133" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="104" t="s">
+        <v>552</v>
+      </c>
+      <c r="E133" s="30"/>
+    </row>
+    <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="103" t="s">
+        <v>553</v>
+      </c>
+      <c r="C134" s="103" t="s">
+        <v>554</v>
+      </c>
+      <c r="D134" s="104" t="s">
+        <v>553</v>
+      </c>
+      <c r="E134" s="30"/>
+    </row>
+    <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B135" s="103" t="s">
+        <v>555</v>
+      </c>
+      <c r="C135" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" s="104" t="s">
+        <v>555</v>
+      </c>
+      <c r="E135" s="30"/>
+    </row>
+    <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" s="103" t="s">
+        <v>556</v>
+      </c>
+      <c r="C136" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" s="104" t="s">
+        <v>556</v>
+      </c>
+      <c r="E136" s="30"/>
+    </row>
+    <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B137" s="103" t="s">
+        <v>557</v>
+      </c>
+      <c r="C137" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D137" s="104" t="s">
+        <v>557</v>
+      </c>
+      <c r="E137" s="30"/>
+    </row>
+    <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="103" t="s">
+        <v>558</v>
+      </c>
+      <c r="C138" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="104" t="s">
+        <v>558</v>
+      </c>
+      <c r="E138" s="30"/>
+    </row>
+    <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="103" t="s">
+        <v>559</v>
+      </c>
+      <c r="C139" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="104" t="s">
+        <v>559</v>
+      </c>
+      <c r="E139" s="30"/>
+    </row>
+    <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140" s="103" t="s">
+        <v>560</v>
+      </c>
+      <c r="C140" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="D140" s="104" t="s">
+        <v>560</v>
+      </c>
+      <c r="E140" s="30"/>
+    </row>
+    <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" s="102" t="s">
+        <v>397</v>
+      </c>
+      <c r="B141" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="C141" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="D141" s="104" t="s">
+        <v>562</v>
+      </c>
+      <c r="E141" s="30"/>
+    </row>
+    <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" s="102" t="s">
+        <v>396</v>
+      </c>
+      <c r="B142" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="D142" s="104" t="s">
+        <v>563</v>
+      </c>
+      <c r="E142" s="30"/>
+    </row>
+    <row r="143" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A143" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="B143" s="103" t="s">
+        <v>564</v>
+      </c>
+      <c r="C143" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="D143" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="E143" s="30"/>
+    </row>
+    <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A144" s="102" t="s">
+        <v>400</v>
+      </c>
+      <c r="B144" s="103" t="s">
+        <v>565</v>
+      </c>
+      <c r="C144" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="D144" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="E144" s="30"/>
+    </row>
+    <row r="145" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A145" s="102" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="103" t="s">
+        <v>566</v>
+      </c>
+      <c r="C145" s="103" t="s">
+        <v>401</v>
+      </c>
+      <c r="D145" s="104" t="s">
+        <v>566</v>
+      </c>
+      <c r="E145" s="30"/>
+    </row>
+    <row r="146" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="B146" s="103" t="s">
+        <v>567</v>
+      </c>
+      <c r="C146" s="103" t="s">
+        <v>402</v>
+      </c>
+      <c r="D146" s="104" t="s">
+        <v>567</v>
+      </c>
+      <c r="E146" s="30"/>
+    </row>
+    <row r="147" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A147" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="B147" s="103" t="s">
+        <v>568</v>
+      </c>
+      <c r="C147" s="103" t="s">
+        <v>403</v>
+      </c>
+      <c r="D147" s="104" t="s">
+        <v>568</v>
+      </c>
+      <c r="E147" s="30"/>
+    </row>
+    <row r="148" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A148" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="B148" s="103" t="s">
+        <v>569</v>
+      </c>
+      <c r="C148" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="D148" s="104" t="s">
+        <v>569</v>
+      </c>
+      <c r="E148" s="30"/>
+    </row>
+    <row r="149" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A149" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B149" s="103" t="s">
+        <v>570</v>
+      </c>
+      <c r="C149" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="D149" s="104" t="s">
+        <v>570</v>
+      </c>
+      <c r="E149" s="30"/>
+    </row>
+    <row r="150" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A150" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="B150" s="103" t="s">
+        <v>571</v>
+      </c>
+      <c r="C150" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="D150" s="104" t="s">
+        <v>571</v>
+      </c>
+      <c r="E150" s="30"/>
+    </row>
+    <row r="151" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A151" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" s="103" t="s">
+        <v>572</v>
+      </c>
+      <c r="C151" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D151" s="104" t="s">
+        <v>572</v>
+      </c>
+      <c r="E151" s="30"/>
+    </row>
+    <row r="152" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A152" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B152" s="103" t="s">
+        <v>573</v>
+      </c>
+      <c r="C152" s="103" t="s">
+        <v>574</v>
+      </c>
+      <c r="D152" s="104" t="s">
+        <v>573</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="B153" s="103" t="s">
+        <v>575</v>
+      </c>
+      <c r="C153" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="D153" s="104" t="s">
+        <v>575</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A154" s="102" t="s">
+        <v>576</v>
+      </c>
+      <c r="B154" s="103" t="s">
+        <v>577</v>
+      </c>
+      <c r="C154" s="103" t="s">
+        <v>576</v>
+      </c>
+      <c r="D154" s="104" t="s">
+        <v>577</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155" s="102" t="s">
+        <v>578</v>
+      </c>
+      <c r="B155" s="103" t="s">
+        <v>579</v>
+      </c>
+      <c r="C155" s="103" t="s">
+        <v>578</v>
+      </c>
+      <c r="D155" s="104" t="s">
+        <v>579</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156" s="118" t="s">
+        <v>580</v>
+      </c>
+      <c r="B156" s="103" t="s">
+        <v>581</v>
+      </c>
+      <c r="C156" s="103" t="s">
+        <v>580</v>
+      </c>
+      <c r="D156" s="104" t="s">
+        <v>581</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A157" s="118" t="s">
+        <v>582</v>
+      </c>
+      <c r="B157" s="103" t="s">
+        <v>583</v>
+      </c>
+      <c r="C157" s="119" t="s">
+        <v>582</v>
+      </c>
+      <c r="D157" s="104" t="s">
+        <v>583</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158" s="118" t="s">
+        <v>584</v>
+      </c>
+      <c r="B158" s="103" t="s">
+        <v>585</v>
+      </c>
+      <c r="C158" s="119" t="s">
+        <v>584</v>
+      </c>
+      <c r="D158" s="104" t="s">
+        <v>585</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A159" s="118" t="s">
+        <v>586</v>
+      </c>
+      <c r="B159" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="C159" s="119" t="s">
+        <v>586</v>
+      </c>
+      <c r="D159" s="104" t="s">
+        <v>587</v>
+      </c>
+      <c r="E159" s="30"/>
+    </row>
+    <row r="160" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A160" s="102" t="s">
+        <v>588</v>
+      </c>
+      <c r="B160" s="103" t="s">
+        <v>589</v>
+      </c>
+      <c r="C160" s="103" t="s">
+        <v>588</v>
+      </c>
+      <c r="D160" s="104" t="s">
+        <v>589</v>
+      </c>
+      <c r="E160" s="30"/>
+    </row>
+    <row r="161" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A161" s="102" t="s">
+        <v>590</v>
+      </c>
+      <c r="B161" s="120" t="s">
+        <v>591</v>
+      </c>
+      <c r="C161" s="120" t="s">
+        <v>590</v>
+      </c>
+      <c r="D161" s="121" t="s">
+        <v>591</v>
+      </c>
+      <c r="E161" s="30"/>
+    </row>
+    <row r="162" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A162" s="102" t="s">
+        <v>592</v>
+      </c>
+      <c r="B162" s="120" t="s">
+        <v>593</v>
+      </c>
+      <c r="C162" s="103" t="s">
+        <v>592</v>
+      </c>
+      <c r="D162" s="121" t="s">
+        <v>593</v>
+      </c>
+      <c r="E162" s="30"/>
+    </row>
+    <row r="163" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A163" s="102" t="s">
+        <v>594</v>
+      </c>
+      <c r="B163" s="120" t="s">
+        <v>595</v>
+      </c>
+      <c r="C163" s="103" t="s">
+        <v>594</v>
+      </c>
+      <c r="D163" s="121" t="s">
+        <v>595</v>
+      </c>
+      <c r="E163" s="30"/>
+    </row>
+    <row r="164" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A164" s="102" t="s">
+        <v>596</v>
+      </c>
+      <c r="B164" s="120" t="s">
+        <v>597</v>
+      </c>
+      <c r="C164" s="103" t="s">
+        <v>596</v>
+      </c>
+      <c r="D164" s="121" t="s">
+        <v>597</v>
+      </c>
+      <c r="E164" s="30"/>
+    </row>
+    <row r="165" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A165" s="118" t="s">
+        <v>598</v>
+      </c>
+      <c r="B165" s="120" t="s">
+        <v>599</v>
+      </c>
+      <c r="C165" s="119" t="s">
+        <v>598</v>
+      </c>
+      <c r="D165" s="121" t="s">
+        <v>599</v>
+      </c>
+      <c r="E165" s="30"/>
+    </row>
+    <row r="166" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A166" s="118" t="s">
+        <v>600</v>
+      </c>
+      <c r="B166" s="120" t="s">
+        <v>601</v>
+      </c>
+      <c r="C166" s="119" t="s">
+        <v>600</v>
+      </c>
+      <c r="D166" s="121" t="s">
+        <v>601</v>
+      </c>
+      <c r="E166" s="30"/>
+    </row>
+    <row r="167" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A167" s="118" t="s">
+        <v>602</v>
+      </c>
+      <c r="B167" s="120" t="s">
+        <v>603</v>
+      </c>
+      <c r="C167" s="119" t="s">
+        <v>602</v>
+      </c>
+      <c r="D167" s="121" t="s">
+        <v>603</v>
+      </c>
+      <c r="E167" s="30"/>
+    </row>
+    <row r="168" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A168" s="118" t="s">
+        <v>604</v>
+      </c>
+      <c r="B168" s="120" t="s">
+        <v>605</v>
+      </c>
+      <c r="C168" s="119" t="s">
+        <v>604</v>
+      </c>
+      <c r="D168" s="121" t="s">
+        <v>605</v>
+      </c>
+      <c r="E168" s="30"/>
+    </row>
+    <row r="169" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A169" s="118" t="s">
+        <v>606</v>
+      </c>
+      <c r="B169" s="120" t="s">
+        <v>607</v>
+      </c>
+      <c r="C169" s="119" t="s">
+        <v>606</v>
+      </c>
+      <c r="D169" s="121" t="s">
+        <v>607</v>
+      </c>
+      <c r="E169" s="30"/>
+    </row>
+    <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A170" s="118" t="s">
+        <v>608</v>
+      </c>
+      <c r="B170" s="120" t="s">
+        <v>609</v>
+      </c>
+      <c r="C170" s="119" t="s">
+        <v>608</v>
+      </c>
+      <c r="D170" s="121" t="s">
+        <v>609</v>
+      </c>
+      <c r="E170" s="30"/>
+    </row>
+    <row r="171" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A171" s="118" t="s">
+        <v>610</v>
+      </c>
+      <c r="B171" s="120" t="s">
+        <v>611</v>
+      </c>
+      <c r="C171" s="119" t="s">
+        <v>610</v>
+      </c>
+      <c r="D171" s="121" t="s">
+        <v>611</v>
+      </c>
+      <c r="E171" s="30"/>
+    </row>
+    <row r="172" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A172" s="118" t="s">
+        <v>612</v>
+      </c>
+      <c r="B172" s="120" t="s">
+        <v>613</v>
+      </c>
+      <c r="C172" s="119" t="s">
+        <v>612</v>
+      </c>
+      <c r="D172" s="121" t="s">
+        <v>613</v>
+      </c>
+      <c r="E172" s="30"/>
+    </row>
+    <row r="173" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A173" s="118" t="s">
+        <v>614</v>
+      </c>
+      <c r="B173" s="120" t="s">
+        <v>615</v>
+      </c>
+      <c r="C173" s="119" t="s">
+        <v>614</v>
+      </c>
+      <c r="D173" s="121" t="s">
+        <v>615</v>
+      </c>
+      <c r="E173" s="30"/>
+    </row>
+    <row r="174" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A174" s="118" t="s">
+        <v>616</v>
+      </c>
+      <c r="B174" s="120" t="s">
+        <v>617</v>
+      </c>
+      <c r="C174" s="119" t="s">
+        <v>616</v>
+      </c>
+      <c r="D174" s="121" t="s">
+        <v>617</v>
+      </c>
+      <c r="E174" s="30"/>
+    </row>
+    <row r="175" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" s="118" t="s">
+        <v>618</v>
+      </c>
+      <c r="B175" s="120" t="s">
+        <v>619</v>
+      </c>
+      <c r="C175" s="119" t="s">
+        <v>618</v>
+      </c>
+      <c r="D175" s="121" t="s">
+        <v>619</v>
+      </c>
+      <c r="E175" s="30"/>
+    </row>
+    <row r="176" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" s="118" t="s">
+        <v>620</v>
+      </c>
+      <c r="B176" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="C176" s="119" t="s">
+        <v>620</v>
+      </c>
+      <c r="D176" s="121" t="s">
+        <v>621</v>
+      </c>
+      <c r="E176" s="30"/>
+    </row>
+    <row r="177" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A177" s="118" t="s">
+        <v>622</v>
+      </c>
+      <c r="B177" s="120" t="s">
+        <v>623</v>
+      </c>
+      <c r="C177" s="119" t="s">
+        <v>622</v>
+      </c>
+      <c r="D177" s="121" t="s">
+        <v>623</v>
+      </c>
+      <c r="E177" s="30"/>
+    </row>
+    <row r="178" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A178" s="122" t="s">
+        <v>624</v>
+      </c>
+      <c r="B178" s="123" t="s">
+        <v>625</v>
+      </c>
+      <c r="C178" s="124" t="s">
+        <v>624</v>
+      </c>
+      <c r="D178" s="125" t="s">
+        <v>625</v>
+      </c>
+      <c r="E178" s="30"/>
+    </row>
+    <row r="179" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A179" s="126" t="s">
+        <v>626</v>
+      </c>
+      <c r="B179" s="126" t="s">
+        <v>627</v>
+      </c>
+      <c r="C179" s="126" t="s">
+        <v>626</v>
+      </c>
+      <c r="D179" s="126" t="s">
+        <v>627</v>
+      </c>
+      <c r="E179" s="127"/>
+    </row>
+    <row r="180" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A180" s="126" t="s">
+        <v>628</v>
+      </c>
+      <c r="B180" s="126" t="s">
+        <v>629</v>
+      </c>
+      <c r="C180" s="126" t="s">
+        <v>628</v>
+      </c>
+      <c r="D180" s="126" t="s">
+        <v>629</v>
+      </c>
+      <c r="E180" s="127"/>
+    </row>
+    <row r="181" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A181" s="126" t="s">
+        <v>630</v>
+      </c>
+      <c r="B181" s="126" t="s">
+        <v>631</v>
+      </c>
+      <c r="C181" s="126" t="s">
+        <v>630</v>
+      </c>
+      <c r="D181" s="126" t="s">
+        <v>631</v>
+      </c>
+      <c r="E181" s="127"/>
+    </row>
+    <row r="182" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A182" s="126" t="s">
+        <v>632</v>
+      </c>
+      <c r="B182" s="126" t="s">
+        <v>633</v>
+      </c>
+      <c r="C182" s="126" t="s">
+        <v>632</v>
+      </c>
+      <c r="D182" s="126" t="s">
+        <v>633</v>
+      </c>
+      <c r="E182" s="127"/>
+    </row>
+    <row r="183" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A183" s="126" t="s">
+        <v>634</v>
+      </c>
+      <c r="B183" s="126" t="s">
+        <v>635</v>
+      </c>
+      <c r="C183" s="126" t="s">
+        <v>634</v>
+      </c>
+      <c r="D183" s="126" t="s">
+        <v>635</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A184" s="139" t="s">
+        <v>636</v>
+      </c>
+      <c r="B184" s="139" t="s">
+        <v>637</v>
+      </c>
+      <c r="C184" s="139" t="s">
+        <v>636</v>
+      </c>
+      <c r="D184" s="139" t="s">
+        <v>637</v>
+      </c>
+      <c r="E184" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A185" s="139" t="s">
+        <v>639</v>
+      </c>
+      <c r="B185" s="139" t="s">
+        <v>640</v>
+      </c>
+      <c r="C185" s="139" t="s">
+        <v>639</v>
+      </c>
+      <c r="D185" s="139" t="s">
+        <v>640</v>
+      </c>
+      <c r="E185" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A186" s="139" t="s">
+        <v>641</v>
+      </c>
+      <c r="B186" s="139" t="s">
+        <v>642</v>
+      </c>
+      <c r="C186" s="139" t="s">
+        <v>641</v>
+      </c>
+      <c r="D186" s="139" t="s">
+        <v>642</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A187" s="139" t="s">
+        <v>643</v>
+      </c>
+      <c r="B187" s="139" t="s">
+        <v>644</v>
+      </c>
+      <c r="C187" s="139" t="s">
+        <v>643</v>
+      </c>
+      <c r="D187" s="139" t="s">
+        <v>644</v>
+      </c>
+      <c r="E187" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A188" s="139" t="s">
+        <v>645</v>
+      </c>
+      <c r="B188" s="139" t="s">
+        <v>646</v>
+      </c>
+      <c r="C188" s="139" t="s">
+        <v>645</v>
+      </c>
+      <c r="D188" s="139" t="s">
+        <v>646</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A189" s="139" t="s">
+        <v>647</v>
+      </c>
+      <c r="B189" s="139" t="s">
+        <v>648</v>
+      </c>
+      <c r="C189" s="139" t="s">
+        <v>647</v>
+      </c>
+      <c r="D189" s="139" t="s">
+        <v>648</v>
+      </c>
+      <c r="E189" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A190" s="139" t="s">
+        <v>649</v>
+      </c>
+      <c r="B190" s="139" t="s">
+        <v>650</v>
+      </c>
+      <c r="C190" s="139" t="s">
+        <v>649</v>
+      </c>
+      <c r="D190" s="139" t="s">
+        <v>650</v>
+      </c>
+      <c r="E190" s="74"/>
+    </row>
+    <row r="191" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A191" s="139" t="s">
+        <v>651</v>
+      </c>
+      <c r="B191" s="139" t="s">
+        <v>652</v>
+      </c>
+      <c r="C191" s="139" t="s">
+        <v>651</v>
+      </c>
+      <c r="D191" s="139" t="s">
+        <v>652</v>
+      </c>
+      <c r="E191" s="74"/>
+    </row>
+    <row r="192" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A192" s="139" t="s">
+        <v>653</v>
+      </c>
+      <c r="B192" s="139" t="s">
+        <v>654</v>
+      </c>
+      <c r="C192" s="139" t="s">
+        <v>653</v>
+      </c>
+      <c r="D192" s="139" t="s">
+        <v>654</v>
+      </c>
+      <c r="E192" s="74"/>
+    </row>
+    <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193" s="139" t="s">
+        <v>655</v>
+      </c>
+      <c r="B193" s="139" t="s">
+        <v>656</v>
+      </c>
+      <c r="C193" s="139" t="s">
+        <v>655</v>
+      </c>
+      <c r="D193" s="139" t="s">
+        <v>656</v>
+      </c>
+      <c r="E193" s="74"/>
+    </row>
+    <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194" s="139" t="s">
+        <v>657</v>
+      </c>
+      <c r="B194" s="139" t="s">
+        <v>658</v>
+      </c>
+      <c r="C194" s="139" t="s">
+        <v>657</v>
+      </c>
+      <c r="D194" s="139" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A195" s="139" t="s">
+        <v>659</v>
+      </c>
+      <c r="B195" s="139" t="s">
+        <v>660</v>
+      </c>
+      <c r="C195" s="139" t="s">
+        <v>659</v>
+      </c>
+      <c r="D195" s="139" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A196" s="139" t="s">
+        <v>661</v>
+      </c>
+      <c r="B196" s="139" t="s">
+        <v>662</v>
+      </c>
+      <c r="C196" s="139" t="s">
+        <v>661</v>
+      </c>
+      <c r="D196" s="139" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A197" s="157" t="s">
+        <v>665</v>
+      </c>
+      <c r="B197" s="157" t="s">
+        <v>664</v>
+      </c>
+      <c r="C197" s="157" t="s">
+        <v>665</v>
+      </c>
+      <c r="D197" s="157" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A198" s="157" t="s">
+        <v>666</v>
+      </c>
+      <c r="B198" s="157" t="s">
+        <v>663</v>
+      </c>
+      <c r="C198" s="157" t="s">
+        <v>666</v>
+      </c>
+      <c r="D198" s="157" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A199" s="140" t="s">
+        <v>672</v>
+      </c>
+      <c r="B199" s="140" t="s">
+        <v>673</v>
+      </c>
+      <c r="C199" s="140" t="s">
+        <v>666</v>
+      </c>
+      <c r="D199" s="140" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -18435,10 +21550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE09E71-EDDD-E849-BD57-A1E1F93BF035}">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18488,7 +21603,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="139">
+      <c r="A7" s="150">
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" s="55" t="s">
@@ -18672,7 +21787,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="139">
+      <c r="A38" s="150">
         <v>1.2</v>
       </c>
       <c r="B38" s="55" t="s">
@@ -18856,7 +21971,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="139">
+      <c r="A69" s="150">
         <v>1.3</v>
       </c>
       <c r="B69" s="55" t="s">
@@ -18876,7 +21991,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="139">
+      <c r="A72" s="150">
         <v>1.4</v>
       </c>
       <c r="B72" s="55" t="s">
@@ -18990,7 +22105,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="38" x14ac:dyDescent="0.2">
-      <c r="A91" s="139">
+      <c r="A91" s="150">
         <v>1.5</v>
       </c>
       <c r="B91" s="56" t="s">
@@ -19004,7 +22119,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="139">
+      <c r="A93" s="150">
         <v>1.6</v>
       </c>
       <c r="B93" s="55" t="s">
@@ -19012,13 +22127,13 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="140"/>
+      <c r="A94" s="151"/>
       <c r="B94" s="55" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="141">
+      <c r="A95" s="152">
         <v>1.7</v>
       </c>
       <c r="B95" s="55" t="s">
@@ -19026,225 +22141,225 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="142"/>
+      <c r="A96" s="153"/>
       <c r="B96" s="55" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="142"/>
+      <c r="A97" s="153"/>
       <c r="B97" s="55" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="142"/>
+      <c r="A98" s="153"/>
       <c r="B98" s="55" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="142"/>
+      <c r="A99" s="153"/>
       <c r="B99" s="55" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="142"/>
+      <c r="A100" s="153"/>
       <c r="B100" s="55" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="142"/>
+      <c r="A101" s="153"/>
       <c r="B101" s="55" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="142"/>
+      <c r="A102" s="153"/>
       <c r="B102" s="55" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="142"/>
+      <c r="A103" s="153"/>
       <c r="B103" s="55" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="142"/>
+      <c r="A104" s="153"/>
       <c r="B104" s="55" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="142"/>
+      <c r="A105" s="153"/>
       <c r="B105" s="55" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="142"/>
+      <c r="A106" s="153"/>
       <c r="B106" s="55" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A107" s="142"/>
+      <c r="A107" s="153"/>
       <c r="B107" s="55" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A108" s="142"/>
+      <c r="A108" s="153"/>
       <c r="B108" s="55" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" s="142"/>
+      <c r="A109" s="153"/>
       <c r="B109" s="55" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="142"/>
+      <c r="A110" s="153"/>
       <c r="B110" s="55" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A111" s="142"/>
+      <c r="A111" s="153"/>
       <c r="B111" s="55" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="142"/>
+      <c r="A112" s="153"/>
       <c r="B112" s="55" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A113" s="142"/>
+      <c r="A113" s="153"/>
       <c r="B113" s="55" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A114" s="142"/>
+      <c r="A114" s="153"/>
       <c r="B114" s="55" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A115" s="142"/>
+      <c r="A115" s="153"/>
       <c r="B115" s="55" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A116" s="142"/>
+      <c r="A116" s="153"/>
       <c r="B116" s="55" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A117" s="142"/>
+      <c r="A117" s="153"/>
       <c r="B117" s="55" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A118" s="142"/>
+      <c r="A118" s="153"/>
       <c r="B118" s="55" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="142"/>
+      <c r="A119" s="153"/>
       <c r="B119" s="55" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A120" s="142"/>
+      <c r="A120" s="153"/>
       <c r="B120" s="55" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A121" s="142"/>
+      <c r="A121" s="153"/>
       <c r="B121" s="55"/>
     </row>
     <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A122" s="142"/>
+      <c r="A122" s="153"/>
       <c r="B122" s="55" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A123" s="142"/>
+      <c r="A123" s="153"/>
       <c r="B123" s="55" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="142"/>
+      <c r="A124" s="153"/>
       <c r="B124" s="55" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A125" s="142"/>
+      <c r="A125" s="153"/>
       <c r="B125" s="55" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A126" s="142"/>
+      <c r="A126" s="153"/>
       <c r="B126" s="55" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A127" s="142"/>
+      <c r="A127" s="153"/>
       <c r="B127" s="55"/>
     </row>
     <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A128" s="142"/>
+      <c r="A128" s="153"/>
       <c r="B128" s="57" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A129" s="142"/>
+      <c r="A129" s="153"/>
       <c r="B129" s="58" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A130" s="142"/>
+      <c r="A130" s="153"/>
       <c r="B130" s="58" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A131" s="142"/>
+      <c r="A131" s="153"/>
       <c r="B131" s="58" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A132" s="143"/>
+      <c r="A132" s="154"/>
       <c r="B132" s="58" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A133" s="144">
+      <c r="A133" s="155">
         <v>1.8</v>
       </c>
       <c r="B133" s="126" t="s">
@@ -19252,13 +22367,13 @@
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A134" s="145"/>
+      <c r="A134" s="156"/>
       <c r="B134" s="55" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A135" s="146">
+      <c r="A135" s="145">
         <v>1.9</v>
       </c>
       <c r="B135" s="55" t="s">
@@ -19266,13 +22381,13 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A136" s="146"/>
+      <c r="A136" s="145"/>
       <c r="B136" s="55" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A137" s="146">
+      <c r="A137" s="145">
         <v>2</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -19280,25 +22395,25 @@
       </c>
     </row>
     <row r="138" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A138" s="146"/>
+      <c r="A138" s="145"/>
       <c r="B138" s="58" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A139" s="146"/>
+      <c r="A139" s="145"/>
       <c r="B139" s="58" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A140" s="146"/>
+      <c r="A140" s="145"/>
       <c r="B140" s="58" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A141" s="146">
+      <c r="A141" s="145">
         <v>2.1</v>
       </c>
       <c r="B141" s="55" t="s">
@@ -19306,79 +22421,79 @@
       </c>
     </row>
     <row r="142" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A142" s="146"/>
+      <c r="A142" s="145"/>
       <c r="B142" s="58" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A143" s="146"/>
+      <c r="A143" s="145"/>
       <c r="B143" s="58" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A144" s="146"/>
+      <c r="A144" s="145"/>
       <c r="B144" s="58" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A145" s="146"/>
+      <c r="A145" s="145"/>
       <c r="B145" s="55" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A146" s="146"/>
+      <c r="A146" s="145"/>
       <c r="B146" s="58" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A147" s="146"/>
+      <c r="A147" s="145"/>
       <c r="B147" s="55" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A148" s="146"/>
+      <c r="A148" s="145"/>
       <c r="B148" s="58" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A149" s="146"/>
+      <c r="A149" s="145"/>
       <c r="B149" s="55" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A150" s="146"/>
+      <c r="A150" s="145"/>
       <c r="B150" s="58" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A151" s="146"/>
+      <c r="A151" s="145"/>
       <c r="B151" s="55" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A152" s="146"/>
+      <c r="A152" s="145"/>
       <c r="B152" s="126" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A153" s="146"/>
+      <c r="A153" s="145"/>
       <c r="B153" s="58" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A154" s="155">
+      <c r="A154" s="146">
         <v>2.2000000000000002</v>
       </c>
       <c r="B154" s="126" t="s">
@@ -19386,34 +22501,34 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A155" s="155"/>
-      <c r="B155" s="150" t="s">
+      <c r="A155" s="146"/>
+      <c r="B155" s="139" t="s">
         <v>669</v>
       </c>
-      <c r="C155" s="150"/>
-      <c r="D155" s="150"/>
-      <c r="E155" s="150"/>
+      <c r="C155" s="139"/>
+      <c r="D155" s="139"/>
+      <c r="E155" s="139"/>
     </row>
     <row r="156" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A156" s="155"/>
-      <c r="B156" s="150" t="s">
+      <c r="A156" s="146"/>
+      <c r="B156" s="139" t="s">
         <v>668</v>
       </c>
-      <c r="C156" s="150"/>
-      <c r="D156" s="150"/>
-      <c r="E156" s="150"/>
+      <c r="C156" s="139"/>
+      <c r="D156" s="139"/>
+      <c r="E156" s="139"/>
     </row>
     <row r="157" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A157" s="155"/>
-      <c r="B157" s="150" t="s">
+      <c r="A157" s="146"/>
+      <c r="B157" s="139" t="s">
         <v>667</v>
       </c>
-      <c r="C157" s="150"/>
-      <c r="D157" s="150"/>
-      <c r="E157" s="150"/>
+      <c r="C157" s="139"/>
+      <c r="D157" s="139"/>
+      <c r="E157" s="139"/>
     </row>
     <row r="158" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A158" s="155">
+      <c r="A158" s="146">
         <v>2.2999999999999998</v>
       </c>
       <c r="B158" s="126" t="s">
@@ -19421,19 +22536,36 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A159" s="155"/>
-      <c r="B159" s="150" t="s">
+      <c r="A159" s="146"/>
+      <c r="B159" s="139" t="s">
         <v>670</v>
       </c>
-      <c r="C159" s="150"/>
+      <c r="C159" s="139"/>
     </row>
     <row r="160" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A160" s="155"/>
-      <c r="B160" s="150" t="s">
+      <c r="A160" s="146"/>
+      <c r="B160" s="139" t="s">
         <v>671</v>
       </c>
-      <c r="C160" s="150"/>
-    </row>
+      <c r="C160" s="139"/>
+    </row>
+    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A161" s="144"/>
+      <c r="B161" s="126" t="s">
+        <v>269</v>
+      </c>
+      <c r="C161" s="139"/>
+    </row>
+    <row r="162" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="144">
+        <v>2.4</v>
+      </c>
+      <c r="B162" s="139" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A141:A153"/>
